--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\goals for the holiday\malaria-shpher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C912F1-F965-4055-89EC-5EE0D0F8C1A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8348BA84-995C-4709-87DC-0147D94C115E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{45F60E51-9DFE-44A1-B4DE-76EEFD9113C4}"/>
   </bookViews>
@@ -25,46 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>january</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>june</t>
-  </si>
-  <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>february</t>
-  </si>
-  <si>
-    <t>august</t>
-  </si>
-  <si>
-    <t>semptember</t>
-  </si>
-  <si>
-    <t>october</t>
-  </si>
-  <si>
-    <t>november</t>
-  </si>
-  <si>
-    <t>december</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>min temp</t>
   </si>
@@ -436,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A20321-9107-4E57-8F05-614C280C61A0}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,342 +413,1326 @@
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>466</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>86</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>391</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>465</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>301</v>
+      </c>
+      <c r="B6">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>213</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>125</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>466</v>
-      </c>
-      <c r="C3">
-        <v>17.8</v>
-      </c>
-      <c r="D3">
-        <v>21.1</v>
-      </c>
-      <c r="E3">
-        <v>25.5</v>
-      </c>
-      <c r="F3">
-        <v>84</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>391</v>
-      </c>
-      <c r="C4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D4">
-        <v>21.2</v>
-      </c>
-      <c r="E4">
-        <v>25.7</v>
-      </c>
-      <c r="F4">
-        <v>83</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>465</v>
-      </c>
-      <c r="C5">
-        <v>17.3</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>25.7</v>
-      </c>
-      <c r="F5">
-        <v>82</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>301</v>
-      </c>
-      <c r="C6">
-        <v>15.8</v>
-      </c>
-      <c r="D6">
-        <v>20.6</v>
-      </c>
-      <c r="E6">
-        <v>25.9</v>
-      </c>
-      <c r="F6">
-        <v>69</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>213</v>
-      </c>
-      <c r="C7">
-        <v>13.9</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>26.2</v>
-      </c>
-      <c r="F7">
-        <v>53</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>125</v>
-      </c>
-      <c r="C8">
-        <v>11.9</v>
-      </c>
       <c r="D8">
-        <v>18.3</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>24.8</v>
+        <v>58</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>11.2</v>
-      </c>
-      <c r="D9">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E9">
-        <v>24.7</v>
-      </c>
-      <c r="F9">
-        <v>46</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
+      </c>
+      <c r="F10">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>13.6</v>
-      </c>
-      <c r="D10">
-        <v>20.5</v>
-      </c>
-      <c r="E10">
-        <v>27.8</v>
-      </c>
-      <c r="F10">
-        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>528</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>82</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="E32">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D11">
+      <c r="E36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>84</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="G68">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>27</v>
+      </c>
+      <c r="E69">
+        <v>82</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <v>77</v>
+      </c>
+      <c r="F70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>27</v>
+      </c>
+      <c r="E71">
+        <v>77</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>26</v>
+      </c>
+      <c r="E72">
+        <v>58</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>17</v>
+      </c>
+      <c r="D73">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>30.9</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-      <c r="G11">
+      <c r="E73">
+        <v>58</v>
+      </c>
+      <c r="F73">
         <v>0</v>
       </c>
-      <c r="H11">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
+      <c r="E74">
+        <v>54</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="E75">
+        <v>37</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>31</v>
+      </c>
+      <c r="E76">
+        <v>33</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+      <c r="D77">
+        <v>33</v>
+      </c>
+      <c r="E77">
+        <v>26</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <v>62</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>24</v>
+      </c>
+      <c r="D79">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>70</v>
+      </c>
+      <c r="F79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>334</v>
+      </c>
+      <c r="E81">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>751</v>
+      </c>
+      <c r="E82">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>677</v>
+      </c>
+      <c r="E83">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>535</v>
+      </c>
+      <c r="E84">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>430</v>
+      </c>
+      <c r="E85">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>472</v>
+      </c>
+      <c r="E86">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>139</v>
+      </c>
+      <c r="E87">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>73</v>
       </c>
-      <c r="C12">
-        <v>19.3</v>
-      </c>
-      <c r="D12">
-        <v>25.7</v>
-      </c>
-      <c r="E12">
-        <v>32</v>
-      </c>
-      <c r="F12">
+      <c r="E88">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>78</v>
+      </c>
+      <c r="E89">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>55</v>
+      </c>
+      <c r="E90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>143</v>
+      </c>
+      <c r="E91">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>230</v>
+      </c>
+      <c r="E92">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>236</v>
+      </c>
+      <c r="B94">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <v>21</v>
+      </c>
+      <c r="D94">
+        <v>29</v>
+      </c>
+      <c r="E94">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>309</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>30</v>
+      </c>
+      <c r="E95">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>315</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>31</v>
+      </c>
+      <c r="E96">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>221</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>21</v>
+      </c>
+      <c r="D97">
+        <v>31</v>
+      </c>
+      <c r="E97">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>320</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>30</v>
+      </c>
+      <c r="E98">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>323</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>79</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>28</v>
+      </c>
+      <c r="E100">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>65</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>33</v>
+      </c>
+      <c r="E101">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>54</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>23</v>
+      </c>
+      <c r="D102">
         <v>35</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
+      <c r="E102">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>44</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>25</v>
+      </c>
+      <c r="D103">
+        <v>37</v>
+      </c>
+      <c r="E103">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>43</v>
+      </c>
+      <c r="B104">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+      <c r="C104">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>36</v>
+      </c>
+      <c r="E104">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>327</v>
+      </c>
+      <c r="B105">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>22</v>
+      </c>
+      <c r="D105">
+        <v>35</v>
+      </c>
+      <c r="E105">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>253</v>
+      </c>
+      <c r="E107">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>128</v>
+      </c>
+      <c r="E108">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>248</v>
+      </c>
+      <c r="E109">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>240</v>
+      </c>
+      <c r="E110">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>208</v>
+      </c>
+      <c r="E111">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>137</v>
+      </c>
+      <c r="E112">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>39</v>
+      </c>
+      <c r="E113">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>34</v>
       </c>
-      <c r="C13">
-        <v>18.8</v>
-      </c>
-      <c r="D13">
-        <v>23.6</v>
-      </c>
-      <c r="E13">
-        <v>29.1</v>
-      </c>
-      <c r="F13">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>528</v>
-      </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>21.5</v>
-      </c>
-      <c r="E14">
-        <v>26.2</v>
-      </c>
-      <c r="F14">
-        <v>80</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>263</v>
+      <c r="E114">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>23</v>
+      </c>
+      <c r="E115">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>47</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>53</v>
+      </c>
+      <c r="E117">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>94</v>
+      </c>
+      <c r="E118">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\goals for the holiday\malaria-shpher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B384A57C-7CFA-4ED4-B4AC-5AC53CF5CC38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD5840-E3F5-4ED2-BC77-7B637482CEE0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{45F60E51-9DFE-44A1-B4DE-76EEFD9113C4}"/>
   </bookViews>
@@ -81,8 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A20321-9107-4E57-8F05-614C280C61A0}">
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,13 +445,13 @@
       <c r="A3">
         <v>466</v>
       </c>
-      <c r="B3">
-        <v>17</v>
+      <c r="B3" s="1">
+        <v>18</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>26</v>
       </c>
       <c r="E3">
@@ -462,13 +468,13 @@
       <c r="A4">
         <v>391</v>
       </c>
-      <c r="B4">
-        <v>17</v>
+      <c r="B4" s="1">
+        <v>18</v>
       </c>
       <c r="C4">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>26</v>
       </c>
       <c r="E4">
@@ -485,13 +491,13 @@
       <c r="A5">
         <v>465</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>17</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>26</v>
       </c>
       <c r="E5">
@@ -508,13 +514,13 @@
       <c r="A6">
         <v>301</v>
       </c>
-      <c r="B6">
-        <v>15</v>
+      <c r="B6" s="1">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>26</v>
       </c>
       <c r="E6">
@@ -531,13 +537,13 @@
       <c r="A7">
         <v>213</v>
       </c>
-      <c r="B7">
-        <v>12</v>
+      <c r="B7" s="1">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>26</v>
       </c>
       <c r="E7">
@@ -554,13 +560,13 @@
       <c r="A8">
         <v>125</v>
       </c>
-      <c r="B8">
-        <v>9</v>
+      <c r="B8" s="1">
+        <v>12</v>
       </c>
       <c r="C8">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>25</v>
       </c>
       <c r="E8">
@@ -577,14 +583,14 @@
       <c r="A9">
         <v>51</v>
       </c>
-      <c r="B9">
-        <v>9</v>
+      <c r="B9" s="1">
+        <v>11</v>
       </c>
       <c r="C9">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>26</v>
+      <c r="D9" s="2">
+        <v>25</v>
       </c>
       <c r="E9">
         <v>51</v>
@@ -600,14 +606,14 @@
       <c r="A10">
         <v>63</v>
       </c>
-      <c r="B10">
-        <v>12</v>
+      <c r="B10" s="1">
+        <v>14</v>
       </c>
       <c r="C10">
         <v>19</v>
       </c>
-      <c r="D10">
-        <v>29</v>
+      <c r="D10" s="2">
+        <v>27</v>
       </c>
       <c r="E10">
         <v>37</v>
@@ -623,14 +629,14 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>16</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
-      <c r="D11">
-        <v>33</v>
+      <c r="D11" s="2">
+        <v>31</v>
       </c>
       <c r="E11">
         <v>21</v>
@@ -642,18 +648,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>73</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>18</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>34</v>
+      <c r="D12" s="2">
+        <v>33</v>
       </c>
       <c r="E12">
         <v>28</v>
@@ -669,14 +675,14 @@
       <c r="A13">
         <v>34</v>
       </c>
-      <c r="B13">
-        <v>19</v>
+      <c r="B13" s="1">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
-      <c r="D13">
-        <v>32</v>
+      <c r="D13" s="2">
+        <v>30</v>
       </c>
       <c r="E13">
         <v>70</v>
@@ -688,18 +694,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>528</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>18</v>
       </c>
       <c r="C14">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>27</v>
+      <c r="D14" s="2">
+        <v>26</v>
       </c>
       <c r="E14">
         <v>82</v>
@@ -711,12 +717,19 @@
         <v>263</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>334</v>
       </c>
+      <c r="B16" s="1">
+        <v>19</v>
+      </c>
       <c r="C16">
         <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>24</v>
       </c>
       <c r="E16">
         <v>86</v>
@@ -732,9 +745,15 @@
       <c r="A17">
         <v>751</v>
       </c>
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
       <c r="C17">
         <v>21</v>
       </c>
+      <c r="D17" s="1">
+        <v>26</v>
+      </c>
       <c r="E17">
         <v>83</v>
       </c>
@@ -745,12 +764,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>677</v>
       </c>
+      <c r="B18" s="1">
+        <v>19</v>
+      </c>
       <c r="C18">
         <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>26</v>
       </c>
       <c r="E18">
         <v>84</v>
@@ -766,8 +791,14 @@
       <c r="A19">
         <v>535</v>
       </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
       <c r="C19">
         <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25</v>
       </c>
       <c r="E19">
         <v>79</v>
@@ -783,8 +814,14 @@
       <c r="A20">
         <v>430</v>
       </c>
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
       <c r="C20">
         <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>28</v>
       </c>
       <c r="E20">
         <v>54</v>
@@ -800,8 +837,14 @@
       <c r="A21">
         <v>472</v>
       </c>
+      <c r="B21" s="1">
+        <v>13</v>
+      </c>
       <c r="C21">
         <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>27</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -817,8 +860,14 @@
       <c r="A22">
         <v>139</v>
       </c>
+      <c r="B22" s="1">
+        <v>13</v>
+      </c>
       <c r="C22">
         <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>26</v>
       </c>
       <c r="E22">
         <v>46</v>
@@ -834,8 +883,14 @@
       <c r="A23">
         <v>73</v>
       </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
       <c r="C23">
         <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>29</v>
       </c>
       <c r="E23">
         <v>39</v>
@@ -851,8 +906,14 @@
       <c r="A24">
         <v>78</v>
       </c>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
       <c r="C24">
         <v>25</v>
+      </c>
+      <c r="D24" s="1">
+        <v>32</v>
       </c>
       <c r="E24">
         <v>31</v>
@@ -868,8 +929,14 @@
       <c r="A25">
         <v>55</v>
       </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
       <c r="C25">
         <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>32</v>
       </c>
       <c r="E25">
         <v>42</v>
@@ -885,9 +952,15 @@
       <c r="A26">
         <v>143</v>
       </c>
+      <c r="B26" s="1">
+        <v>19</v>
+      </c>
       <c r="C26">
         <v>24</v>
       </c>
+      <c r="D26" s="1">
+        <v>29</v>
+      </c>
       <c r="E26">
         <v>62</v>
       </c>
@@ -898,13 +971,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>230</v>
       </c>
+      <c r="B27" s="1">
+        <v>19</v>
+      </c>
       <c r="C27">
         <v>23</v>
       </c>
+      <c r="D27" s="1">
+        <v>28</v>
+      </c>
       <c r="E27">
         <v>74</v>
       </c>
@@ -915,18 +994,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>236</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>84</v>
@@ -938,18 +1017,18 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>309</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>20</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>88</v>
@@ -966,13 +1045,13 @@
         <v>315</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>21</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>85</v>
@@ -989,13 +1068,13 @@
         <v>221</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>80</v>
@@ -1012,13 +1091,13 @@
         <v>320</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>19</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>57</v>
@@ -1035,13 +1114,13 @@
         <v>323</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>17</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>54</v>
@@ -1058,13 +1137,13 @@
         <v>79</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>18</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>49</v>
@@ -1081,13 +1160,13 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>38</v>
@@ -1104,13 +1183,13 @@
         <v>54</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>23</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>33</v>
@@ -1127,13 +1206,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>26</v>
       </c>
       <c r="D38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>26</v>
@@ -1150,13 +1229,13 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>23</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>68</v>
@@ -1173,13 +1252,13 @@
         <v>327</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>81</v>
@@ -1195,8 +1274,14 @@
       <c r="A42">
         <v>253</v>
       </c>
+      <c r="B42" s="1">
+        <v>18</v>
+      </c>
       <c r="C42">
         <v>21</v>
+      </c>
+      <c r="D42" s="1">
+        <v>26</v>
       </c>
       <c r="E42">
         <v>85</v>
@@ -1212,8 +1297,14 @@
       <c r="A43">
         <v>128</v>
       </c>
+      <c r="B43" s="1">
+        <v>18</v>
+      </c>
       <c r="C43">
         <v>21</v>
+      </c>
+      <c r="D43" s="1">
+        <v>26</v>
       </c>
       <c r="E43">
         <v>85</v>
@@ -1229,9 +1320,15 @@
       <c r="A44">
         <v>248</v>
       </c>
+      <c r="B44" s="1">
+        <v>17</v>
+      </c>
       <c r="C44">
         <v>20</v>
       </c>
+      <c r="D44" s="1">
+        <v>26</v>
+      </c>
       <c r="E44">
         <v>87</v>
       </c>
@@ -1242,12 +1339,18 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>240</v>
       </c>
+      <c r="B45" s="1">
+        <v>16</v>
+      </c>
       <c r="C45">
         <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>26</v>
       </c>
       <c r="E45">
         <v>70</v>
@@ -1263,8 +1366,14 @@
       <c r="A46">
         <v>208</v>
       </c>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
       <c r="C46">
         <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>26</v>
       </c>
       <c r="E46">
         <v>56</v>
@@ -1280,8 +1389,14 @@
       <c r="A47">
         <v>137</v>
       </c>
+      <c r="B47" s="1">
+        <v>12</v>
+      </c>
       <c r="C47">
         <v>18</v>
+      </c>
+      <c r="D47" s="1">
+        <v>25</v>
       </c>
       <c r="E47">
         <v>51</v>
@@ -1297,8 +1412,14 @@
       <c r="A48">
         <v>39</v>
       </c>
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
       <c r="C48">
         <v>17</v>
+      </c>
+      <c r="D48" s="1">
+        <v>25</v>
       </c>
       <c r="E48">
         <v>46</v>
@@ -1314,8 +1435,14 @@
       <c r="A49">
         <v>34</v>
       </c>
+      <c r="B49" s="1">
+        <v>14</v>
+      </c>
       <c r="C49">
         <v>21</v>
+      </c>
+      <c r="D49" s="1">
+        <v>27</v>
       </c>
       <c r="E49">
         <v>38</v>
@@ -1331,8 +1458,14 @@
       <c r="A50">
         <v>23</v>
       </c>
+      <c r="B50" s="1">
+        <v>16</v>
+      </c>
       <c r="C50">
         <v>24</v>
+      </c>
+      <c r="D50" s="1">
+        <v>31</v>
       </c>
       <c r="E50">
         <v>34</v>
@@ -1348,8 +1481,14 @@
       <c r="A51">
         <v>47</v>
       </c>
+      <c r="B51" s="1">
+        <v>18</v>
+      </c>
       <c r="C51">
         <v>26</v>
+      </c>
+      <c r="D51" s="1">
+        <v>33</v>
       </c>
       <c r="E51">
         <v>40</v>
@@ -1365,8 +1504,14 @@
       <c r="A52">
         <v>53</v>
       </c>
+      <c r="B52" s="1">
+        <v>18</v>
+      </c>
       <c r="C52">
         <v>25</v>
+      </c>
+      <c r="D52" s="1">
+        <v>30</v>
       </c>
       <c r="E52">
         <v>54</v>
@@ -1381,6 +1526,15 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>94</v>
+      </c>
+      <c r="B53" s="1">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1">
+        <v>26</v>
       </c>
       <c r="E53">
         <v>59</v>
